--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\python-blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C3730B-98B9-4CC4-9585-3F75EBEEBB7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8991CCA-740B-4DBC-8599-6B11CDE08CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36BD73E6-974A-426F-B048-9AF43AC75835}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="142">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,6 +591,10 @@
   </si>
   <si>
     <t>类目排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -967,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C34E8B-70B7-436D-9026-582814CA5A6E}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1588,123 +1592,123 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="C39" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C40" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="1">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="D41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="1">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="1">
-        <v>255</v>
+        <v>500</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
+      </c>
+      <c r="C44" s="1">
+        <v>255</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>26</v>
@@ -1716,29 +1720,29 @@
         <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C47" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>19</v>
@@ -1749,16 +1753,13 @@
       <c r="D48" s="1">
         <v>0</v>
       </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
       <c r="H48" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>19</v>
@@ -1773,32 +1774,32 @@
         <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>37</v>
@@ -1813,114 +1814,117 @@
         <v>1</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C52" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
         <v>1</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="1">
+        <v>32</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="1">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1">
-        <v>10</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>10</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="H54" s="1" t="s">
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="1">
-        <v>0</v>
+      <c r="G58" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>9</v>
@@ -1932,15 +1936,15 @@
         <v>0</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1">
         <v>20</v>
@@ -1949,301 +1953,307 @@
         <v>0</v>
       </c>
       <c r="H60" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="1">
+        <v>20</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
       </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C65" s="1">
         <v>255</v>
       </c>
-      <c r="D64" s="1">
-        <v>0</v>
-      </c>
-      <c r="H64" s="1" t="s">
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-    </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A66" s="2"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="H68" s="1" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C69" s="1">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="1">
+        <v>100</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C72" s="1">
         <v>2</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G75" s="1">
-        <v>1</v>
+      <c r="G75" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C76" s="1">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C78" s="1">
-        <v>3</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C79" s="1">
-        <v>255</v>
+        <v>3</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>10</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="1">
+        <v>255</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="1">
         <v>500</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>9</v>
@@ -2252,30 +2262,41 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="1">
         <v>20</v>
       </c>
     </row>

--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\python-blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8991CCA-740B-4DBC-8599-6B11CDE08CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077D5E49-88EC-4E9E-9BC8-E84BFCB009A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36BD73E6-974A-426F-B048-9AF43AC75835}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="148">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,6 +595,30 @@
   </si>
   <si>
     <t>分类id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article_is_hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article_is_push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img-list图集表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C34E8B-70B7-436D-9026-582814CA5A6E}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>66</v>
@@ -1507,6 +1531,9 @@
       <c r="D32" s="1">
         <v>1</v>
       </c>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
       <c r="H32" s="1" t="s">
         <v>140</v>
       </c>
@@ -1524,6 +1551,9 @@
       <c r="D33" s="1">
         <v>0</v>
       </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
       <c r="H33" s="1" t="s">
         <v>43</v>
       </c>
@@ -1677,109 +1707,112 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C44" s="1">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
       <c r="H45" s="1" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C48" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C49" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>19</v>
@@ -1790,178 +1823,181 @@
       <c r="D50" s="1">
         <v>0</v>
       </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C53" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
         <v>1</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1">
+        <v>32</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="1">
         <v>3</v>
       </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1">
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
         <v>10</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C57" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="1">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="H55" s="1" t="s">
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="1">
-        <v>20</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="1">
-        <v>0</v>
+      <c r="G60" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C61" s="1">
         <v>20</v>
@@ -1970,334 +2006,395 @@
         <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="1">
+        <v>20</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1">
+        <v>20</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="1">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
       </c>
-      <c r="E64" s="1">
-        <v>1</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C67" s="1">
         <v>255</v>
       </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1" t="s">
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A68" s="2"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C69" s="1">
-        <v>3</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="1">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C71" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C72" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="1">
+        <v>100</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="1">
         <v>2</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>5</v>
+      <c r="H74" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="1">
-        <v>20</v>
-      </c>
-      <c r="G76" s="1">
-        <v>1</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="1">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C78" s="1">
-        <v>80</v>
+        <v>20</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C79" s="1">
-        <v>3</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="1">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>10</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="1">
-        <v>500</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>134</v>
+      <c r="C82" s="1">
+        <v>255</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="1">
-        <v>20</v>
+        <v>135</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="1">
+        <v>500</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B85" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C86" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C87" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C91" s="1">
         <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="1">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
